--- a/Cox-Ross-Rubenstein Excel Model.xlsx
+++ b/Cox-Ross-Rubenstein Excel Model.xlsx
@@ -114,8 +114,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -225,7 +226,7 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="164" xfId="0" applyFill="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="165" xfId="0" applyFill="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -512,7 +513,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="6">
-        <f t="shared" ref="D2:D172" si="1">FACT($B$7)/(fact(E2)*fact($B$7-E2))</f>
+        <f t="shared" ref="D2:D172" si="1">IF($B$7&gt;=E2, (FACT($B$7)/(fact(E2)*fact($B$7-E2))) ,0)</f>
         <v>1</v>
       </c>
       <c r="E2" s="5">
@@ -625,9 +626,9 @@
       <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D5" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E5" s="5">
         <v>3.0</v>
@@ -640,17 +641,17 @@
         <f t="shared" si="3"/>
         <v>49.18246976</v>
       </c>
-      <c r="H5" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H5" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J5" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J5" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -663,9 +664,9 @@
       <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D6" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E6" s="5">
         <v>4.0</v>
@@ -678,17 +679,17 @@
         <f t="shared" si="3"/>
         <v>82.21188004</v>
       </c>
-      <c r="H6" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H6" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J6" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J6" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -701,9 +702,9 @@
       <c r="C7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D7" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E7" s="5">
         <v>5.0</v>
@@ -716,17 +717,17 @@
         <f t="shared" si="3"/>
         <v>122.5540928</v>
       </c>
-      <c r="H7" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H7" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J7" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J7" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -738,9 +739,9 @@
         <v>1.105170918</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D8" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E8" s="5">
         <v>6.0</v>
@@ -753,17 +754,17 @@
         <f t="shared" si="3"/>
         <v>171.8281828</v>
       </c>
-      <c r="H8" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H8" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J8" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J8" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -774,9 +775,9 @@
         <f>1/B8</f>
         <v>0.904837418</v>
       </c>
-      <c r="D9" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D9" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E9" s="5">
         <v>7.0</v>
@@ -789,17 +790,17 @@
         <f t="shared" si="3"/>
         <v>232.0116923</v>
       </c>
-      <c r="H9" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H9" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J9" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J9" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -810,9 +811,9 @@
         <f>B6/B7</f>
         <v>0.25</v>
       </c>
-      <c r="D10" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D10" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E10" s="5">
         <v>8.0</v>
@@ -825,17 +826,17 @@
         <f t="shared" si="3"/>
         <v>305.5199967</v>
       </c>
-      <c r="H10" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H10" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J10" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J10" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -846,9 +847,9 @@
         <f>(exp(B13*B10)-B9)/(B8-B9)</f>
         <v>0.5059335962</v>
       </c>
-      <c r="D11" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D11" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E11" s="5">
         <v>9.0</v>
@@ -861,17 +862,17 @@
         <f t="shared" si="3"/>
         <v>395.3032424</v>
       </c>
-      <c r="H11" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H11" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J11" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J11" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -882,9 +883,9 @@
         <f>1-B11</f>
         <v>0.4940664038</v>
       </c>
-      <c r="D12" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D12" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E12" s="5">
         <v>10.0</v>
@@ -897,17 +898,17 @@
         <f t="shared" si="3"/>
         <v>504.9647464</v>
       </c>
-      <c r="H12" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H12" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J12" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J12" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -921,9 +922,9 @@
       <c r="C13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D13" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E13" s="5">
         <v>11.0</v>
@@ -936,17 +937,17 @@
         <f t="shared" si="3"/>
         <v>638.9056099</v>
       </c>
-      <c r="H13" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H13" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J13" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J13" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -957,9 +958,9 @@
         <f>sumif(H2:H172, "&gt;0")</f>
         <v>5.3973523</v>
       </c>
-      <c r="D14" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D14" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E14" s="9">
         <v>12.0</v>
@@ -972,17 +973,17 @@
         <f t="shared" si="3"/>
         <v>802.5013499</v>
       </c>
-      <c r="H14" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H14" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J14" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J14" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -993,9 +994,9 @@
         <f>sumif(J2:J172, "&gt;0")</f>
         <v>4.214106216</v>
       </c>
-      <c r="D15" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D15" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E15" s="5">
         <v>13.0</v>
@@ -1008,23 +1009,23 @@
         <f t="shared" si="3"/>
         <v>1002.317638</v>
       </c>
-      <c r="H15" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H15" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J15" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J15" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="D16" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E16" s="5">
         <v>14.0</v>
@@ -1037,23 +1038,23 @@
         <f t="shared" si="3"/>
         <v>1246.373804</v>
       </c>
-      <c r="H16" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H16" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J16" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J16" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="D17" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D17" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E17" s="5">
         <v>15.0</v>
@@ -1066,23 +1067,23 @@
         <f t="shared" si="3"/>
         <v>1544.464677</v>
       </c>
-      <c r="H17" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H17" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J17" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J17" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="D18" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D18" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E18" s="5">
         <v>16.0</v>
@@ -1095,23 +1096,23 @@
         <f t="shared" si="3"/>
         <v>1908.553692</v>
       </c>
-      <c r="H18" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H18" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J18" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J18" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="D19" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E19" s="5">
         <v>17.0</v>
@@ -1124,23 +1125,23 @@
         <f t="shared" si="3"/>
         <v>2353.25302</v>
       </c>
-      <c r="H19" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H19" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J19" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J19" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="D20" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D20" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E20" s="5">
         <v>18.0</v>
@@ -1153,23 +1154,23 @@
         <f t="shared" si="3"/>
         <v>2896.410005</v>
       </c>
-      <c r="H20" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H20" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J20" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J20" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="D21" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D21" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E21" s="5">
         <v>19.0</v>
@@ -1182,23 +1183,23 @@
         <f t="shared" si="3"/>
         <v>3559.823444</v>
       </c>
-      <c r="H21" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H21" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J21" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J21" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="D22" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E22" s="5">
         <v>20.0</v>
@@ -1211,23 +1212,23 @@
         <f t="shared" si="3"/>
         <v>4370.118449</v>
       </c>
-      <c r="H22" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H22" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J22" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J22" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="D23" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D23" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E23" s="5">
         <v>21.0</v>
@@ -1240,23 +1241,23 @@
         <f t="shared" si="3"/>
         <v>5359.815003</v>
       </c>
-      <c r="H23" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H23" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J23" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J23" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="D24" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D24" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E24" s="5">
         <v>22.0</v>
@@ -1269,23 +1270,23 @@
         <f t="shared" si="3"/>
         <v>6568.633104</v>
       </c>
-      <c r="H24" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H24" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J24" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J24" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="D25" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D25" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E25" s="5">
         <v>23.0</v>
@@ -1298,23 +1299,23 @@
         <f t="shared" si="3"/>
         <v>8045.086866</v>
       </c>
-      <c r="H25" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H25" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J25" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J25" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="D26" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D26" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E26" s="5">
         <v>24.0</v>
@@ -1327,23 +1328,23 @@
         <f t="shared" si="3"/>
         <v>9848.431564</v>
       </c>
-      <c r="H26" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H26" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J26" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J26" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="D27" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E27" s="5">
         <v>25.0</v>
@@ -1356,23 +1357,23 @@
         <f t="shared" si="3"/>
         <v>12051.04175</v>
       </c>
-      <c r="H27" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H27" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J27" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J27" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="D28" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D28" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E28" s="5">
         <v>26.0</v>
@@ -1385,23 +1386,23 @@
         <f t="shared" si="3"/>
         <v>14741.31591</v>
       </c>
-      <c r="H28" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H28" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J28" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J28" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="D29" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D29" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E29" s="5">
         <v>27.0</v>
@@ -1414,23 +1415,23 @@
         <f t="shared" si="3"/>
         <v>18027.22419</v>
       </c>
-      <c r="H29" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H29" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J29" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J29" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D30" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E30" s="5">
         <v>28.0</v>
@@ -1443,23 +1444,23 @@
         <f t="shared" si="3"/>
         <v>22040.64162</v>
       </c>
-      <c r="H30" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H30" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J30" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J30" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D31" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E31" s="5">
         <v>29.0</v>
@@ -1472,23 +1473,23 @@
         <f t="shared" si="3"/>
         <v>26942.64074</v>
       </c>
-      <c r="H31" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H31" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J31" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J31" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D32" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E32" s="5">
         <v>30.0</v>
@@ -1501,23 +1502,23 @@
         <f t="shared" si="3"/>
         <v>32929.95599</v>
       </c>
-      <c r="H32" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H32" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J32" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J32" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D33" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E33" s="5">
         <v>31.0</v>
@@ -1530,23 +1531,23 @@
         <f t="shared" si="3"/>
         <v>40242.87935</v>
       </c>
-      <c r="H33" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H33" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I33" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J33" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J33" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D34" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E34" s="5">
         <v>32.0</v>
@@ -1559,23 +1560,23 @@
         <f t="shared" si="3"/>
         <v>49174.90411</v>
       </c>
-      <c r="H34" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H34" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I34" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J34" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J34" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D35" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E35" s="5">
         <v>33.0</v>
@@ -1588,23 +1589,23 @@
         <f t="shared" si="3"/>
         <v>60084.50379</v>
       </c>
-      <c r="H35" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H35" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I35" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J35" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J35" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D36" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E36" s="5">
         <v>34.0</v>
@@ -1617,23 +1618,23 @@
         <f t="shared" si="3"/>
         <v>73409.51892</v>
       </c>
-      <c r="H36" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H36" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I36" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J36" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J36" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D37" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E37" s="5">
         <v>35.0</v>
@@ -1646,23 +1647,23 @@
         <f t="shared" si="3"/>
         <v>89684.72917</v>
       </c>
-      <c r="H37" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H37" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I37" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J37" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J37" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D38" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E38" s="5">
         <v>36.0</v>
@@ -1675,23 +1676,23 @@
         <f t="shared" si="3"/>
         <v>109563.3158</v>
       </c>
-      <c r="H38" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H38" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I38" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J38" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J38" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="D39" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D39" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E39" s="5">
         <v>37.0</v>
@@ -1704,23 +1705,23 @@
         <f t="shared" si="3"/>
         <v>133843.0764</v>
       </c>
-      <c r="H39" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H39" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J39" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J39" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="D40" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D40" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E40" s="5">
         <v>38.0</v>
@@ -1733,23 +1734,23 @@
         <f t="shared" si="3"/>
         <v>163498.443</v>
       </c>
-      <c r="H40" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H40" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I40" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J40" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J40" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="D41" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D41" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E41" s="5">
         <v>39.0</v>
@@ -1762,23 +1763,23 @@
         <f t="shared" si="3"/>
         <v>199719.5895</v>
       </c>
-      <c r="H41" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H41" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J41" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J41" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="D42" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D42" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E42" s="5">
         <v>40.0</v>
@@ -1791,23 +1792,23 @@
         <f t="shared" si="3"/>
         <v>243960.1978</v>
       </c>
-      <c r="H42" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H42" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I42" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J42" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J42" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="D43" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D43" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E43" s="5">
         <v>41.0</v>
@@ -1820,23 +1821,23 @@
         <f t="shared" si="3"/>
         <v>297995.7987</v>
       </c>
-      <c r="H43" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H43" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I43" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J43" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J43" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="D44" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D44" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E44" s="5">
         <v>42.0</v>
@@ -1849,23 +1850,23 @@
         <f t="shared" si="3"/>
         <v>363995.0307</v>
       </c>
-      <c r="H44" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H44" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J44" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J44" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="D45" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D45" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E45" s="5">
         <v>43.0</v>
@@ -1878,23 +1879,23 @@
         <f t="shared" si="3"/>
         <v>444606.6748</v>
       </c>
-      <c r="H45" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H45" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I45" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J45" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J45" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="D46" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D46" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E46" s="5">
         <v>44.0</v>
@@ -1907,23 +1908,23 @@
         <f t="shared" si="3"/>
         <v>543065.9591</v>
       </c>
-      <c r="H46" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H46" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I46" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J46" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J46" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="D47" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D47" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E47" s="5">
         <v>45.0</v>
@@ -1936,23 +1937,23 @@
         <f t="shared" si="3"/>
         <v>663324.4006</v>
       </c>
-      <c r="H47" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H47" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I47" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J47" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J47" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="D48" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D48" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E48" s="5">
         <v>46.0</v>
@@ -1965,23 +1966,23 @@
         <f t="shared" si="3"/>
         <v>810208.3928</v>
       </c>
-      <c r="H48" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H48" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I48" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J48" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J48" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="D49" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D49" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E49" s="5">
         <v>47.0</v>
@@ -1994,23 +1995,23 @@
         <f t="shared" si="3"/>
         <v>989612.9059</v>
       </c>
-      <c r="H49" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H49" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I49" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J49" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J49" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="D50" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D50" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E50" s="5">
         <v>48.0</v>
@@ -2023,23 +2024,23 @@
         <f t="shared" si="3"/>
         <v>1208738.073</v>
       </c>
-      <c r="H50" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H50" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I50" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J50" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J50" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="D51" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D51" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E51" s="5">
         <v>49.0</v>
@@ -2052,23 +2053,23 @@
         <f t="shared" si="3"/>
         <v>1476378.157</v>
       </c>
-      <c r="H51" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H51" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I51" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J51" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J51" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="D52" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D52" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E52" s="5">
         <v>50.0</v>
@@ -2081,23 +2082,23 @@
         <f t="shared" si="3"/>
         <v>1803274.493</v>
       </c>
-      <c r="H52" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H52" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I52" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J52" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J52" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="D53" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D53" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E53" s="5">
         <v>51.0</v>
@@ -2110,23 +2111,23 @@
         <f t="shared" si="3"/>
         <v>2202546.579</v>
       </c>
-      <c r="H53" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H53" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I53" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J53" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J53" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="D54" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D54" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E54" s="5">
         <v>52.0</v>
@@ -2139,23 +2140,23 @@
         <f t="shared" si="3"/>
         <v>2690218.607</v>
       </c>
-      <c r="H54" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H54" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I54" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J54" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J54" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="D55" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D55" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E55" s="5">
         <v>53.0</v>
@@ -2168,23 +2169,23 @@
         <f t="shared" si="3"/>
         <v>3285862.567</v>
       </c>
-      <c r="H55" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H55" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I55" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J55" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J55" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="D56" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D56" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E56" s="5">
         <v>54.0</v>
@@ -2197,23 +2198,23 @@
         <f t="shared" si="3"/>
         <v>4013383.743</v>
       </c>
-      <c r="H56" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H56" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I56" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J56" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J56" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="D57" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D57" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E57" s="5">
         <v>55.0</v>
@@ -2226,23 +2227,23 @@
         <f t="shared" si="3"/>
         <v>4901980.114</v>
       </c>
-      <c r="H57" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H57" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I57" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J57" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J57" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="D58" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D58" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E58" s="5">
         <v>56.0</v>
@@ -2255,23 +2256,23 @@
         <f t="shared" si="3"/>
         <v>5987314.172</v>
       </c>
-      <c r="H58" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H58" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I58" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J58" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J58" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="D59" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D59" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E59" s="5">
         <v>57.0</v>
@@ -2284,23 +2285,23 @@
         <f t="shared" si="3"/>
         <v>7312944.183</v>
       </c>
-      <c r="H59" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H59" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I59" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J59" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J59" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="D60" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D60" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E60" s="5">
         <v>58.0</v>
@@ -2313,23 +2314,23 @@
         <f t="shared" si="3"/>
         <v>8932072.336</v>
       </c>
-      <c r="H60" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H60" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I60" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J60" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J60" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="D61" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D61" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E61" s="5">
         <v>59.0</v>
@@ -2342,23 +2343,23 @@
         <f t="shared" si="3"/>
         <v>10909679.93</v>
       </c>
-      <c r="H61" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H61" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I61" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J61" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J61" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="D62" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D62" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E62" s="5">
         <v>60.0</v>
@@ -2371,23 +2372,23 @@
         <f t="shared" si="3"/>
         <v>13325135.29</v>
       </c>
-      <c r="H62" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H62" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I62" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J62" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J62" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="D63" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D63" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E63" s="5">
         <v>61.0</v>
@@ -2400,23 +2401,23 @@
         <f t="shared" si="3"/>
         <v>16275379.14</v>
       </c>
-      <c r="H63" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H63" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I63" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J63" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J63" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="D64" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E64" s="5">
         <v>62.0</v>
@@ -2429,23 +2430,23 @@
         <f t="shared" si="3"/>
         <v>19878815.11</v>
       </c>
-      <c r="H64" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H64" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I64" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J64" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J64" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="D65" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D65" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E65" s="5">
         <v>63.0</v>
@@ -2458,23 +2459,23 @@
         <f t="shared" si="3"/>
         <v>24280061.75</v>
       </c>
-      <c r="H65" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H65" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I65" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J65" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J65" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="D66" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D66" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E66" s="5">
         <v>64.0</v>
@@ -2487,23 +2488,23 @@
         <f t="shared" si="3"/>
         <v>29655756.53</v>
       </c>
-      <c r="H66" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H66" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I66" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J66" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J66" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="D67" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D67" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E67" s="5">
         <v>65.0</v>
@@ -2516,23 +2517,23 @@
         <f t="shared" si="3"/>
         <v>36221644.96</v>
       </c>
-      <c r="H67" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H67" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I67" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J67" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J67" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
-      <c r="D68" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D68" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E68" s="5">
         <v>66.0</v>
@@ -2545,23 +2546,23 @@
         <f t="shared" si="3"/>
         <v>44241239.2</v>
       </c>
-      <c r="H68" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H68" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I68" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J68" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J68" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
-      <c r="D69" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D69" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E69" s="5">
         <v>67.0</v>
@@ -2574,23 +2575,23 @@
         <f t="shared" si="3"/>
         <v>54036393.72</v>
       </c>
-      <c r="H69" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H69" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I69" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J69" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J69" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
-      <c r="D70" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D70" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E70" s="5">
         <v>68.0</v>
@@ -2603,23 +2604,23 @@
         <f t="shared" si="3"/>
         <v>66000222.48</v>
       </c>
-      <c r="H70" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H70" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I70" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J70" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J70" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
-      <c r="D71" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D71" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E71" s="5">
         <v>69.0</v>
@@ -2632,23 +2633,23 @@
         <f t="shared" si="3"/>
         <v>80612875.91</v>
       </c>
-      <c r="H71" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H71" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I71" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J71" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J71" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
-      <c r="D72" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D72" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E72" s="5">
         <v>70.0</v>
@@ -2661,23 +2662,23 @@
         <f t="shared" si="3"/>
         <v>98460811.12</v>
       </c>
-      <c r="H72" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H72" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I72" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J72" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J72" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
-      <c r="D73" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D73" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E73" s="5">
         <v>71.0</v>
@@ -2690,23 +2691,23 @@
         <f t="shared" si="3"/>
         <v>120260328.4</v>
       </c>
-      <c r="H73" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H73" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I73" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J73" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J73" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
-      <c r="D74" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D74" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E74" s="5">
         <v>72.0</v>
@@ -2719,23 +2720,23 @@
         <f t="shared" si="3"/>
         <v>146886319</v>
       </c>
-      <c r="H74" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H74" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I74" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J74" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J74" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
-      <c r="D75" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D75" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E75" s="5">
         <v>73.0</v>
@@ -2748,23 +2749,23 @@
         <f t="shared" si="3"/>
         <v>179407377.3</v>
       </c>
-      <c r="H75" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H75" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I75" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J75" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J75" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
-      <c r="D76" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D76" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E76" s="5">
         <v>74.0</v>
@@ -2777,23 +2778,23 @@
         <f t="shared" si="3"/>
         <v>219128687.6</v>
       </c>
-      <c r="H76" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H76" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I76" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J76" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J76" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
-      <c r="D77" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D77" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E77" s="5">
         <v>75.0</v>
@@ -2806,23 +2807,23 @@
         <f t="shared" si="3"/>
         <v>267644405.5</v>
       </c>
-      <c r="H77" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H77" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I77" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J77" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J77" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
-      <c r="D78" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D78" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E78" s="5">
         <v>76.0</v>
@@ -2835,23 +2836,23 @@
         <f t="shared" si="3"/>
         <v>326901637.2</v>
       </c>
-      <c r="H78" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H78" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I78" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J78" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J78" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
-      <c r="D79" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D79" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E79" s="5">
         <v>77.0</v>
@@ -2864,23 +2865,23 @@
         <f t="shared" si="3"/>
         <v>399278583.5</v>
       </c>
-      <c r="H79" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H79" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I79" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J79" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J79" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
-      <c r="D80" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D80" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E80" s="5">
         <v>78.0</v>
@@ -2893,23 +2894,23 @@
         <f t="shared" si="3"/>
         <v>487679985.3</v>
       </c>
-      <c r="H80" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H80" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I80" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J80" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J80" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
-      <c r="D81" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D81" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E81" s="5">
         <v>79.0</v>
@@ -2922,23 +2923,23 @@
         <f t="shared" si="3"/>
         <v>595653701.3</v>
       </c>
-      <c r="H81" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H81" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I81" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J81" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J81" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
-      <c r="D82" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D82" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E82" s="5">
         <v>80.0</v>
@@ -2951,23 +2952,23 @@
         <f t="shared" si="3"/>
         <v>727533095.8</v>
       </c>
-      <c r="H82" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H82" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I82" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J82" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J82" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
-      <c r="D83" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D83" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E83" s="5">
         <v>81.0</v>
@@ -2980,23 +2981,23 @@
         <f t="shared" si="3"/>
         <v>888610952.1</v>
       </c>
-      <c r="H83" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H83" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I83" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J83" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J83" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
-      <c r="D84" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D84" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E84" s="5">
         <v>82.0</v>
@@ -3009,23 +3010,23 @@
         <f t="shared" si="3"/>
         <v>1085351890</v>
       </c>
-      <c r="H84" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H84" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I84" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J84" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J84" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
-      <c r="D85" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D85" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E85" s="5">
         <v>83.0</v>
@@ -3038,23 +3039,23 @@
         <f t="shared" si="3"/>
         <v>1325651814</v>
       </c>
-      <c r="H85" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H85" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I85" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J85" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J85" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
-      <c r="D86" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D86" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E86" s="5">
         <v>84.0</v>
@@ -3067,23 +3068,23 @@
         <f t="shared" si="3"/>
         <v>1619154804</v>
       </c>
-      <c r="H86" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H86" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I86" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J86" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J86" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
-      <c r="D87" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D87" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E87" s="5">
         <v>85.0</v>
@@ -3096,23 +3097,23 @@
         <f t="shared" si="3"/>
         <v>1977640166</v>
       </c>
-      <c r="H87" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H87" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I87" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J87" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J87" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
-      <c r="D88" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D88" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E88" s="5">
         <v>86.0</v>
@@ -3125,23 +3126,23 @@
         <f t="shared" si="3"/>
         <v>2415495175</v>
       </c>
-      <c r="H88" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H88" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I88" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J88" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J88" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
-      <c r="D89" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D89" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E89" s="5">
         <v>87.0</v>
@@ -3154,23 +3155,23 @@
         <f t="shared" si="3"/>
         <v>2950292492</v>
       </c>
-      <c r="H89" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H89" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I89" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J89" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J89" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
-      <c r="D90" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D90" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E90" s="5">
         <v>88.0</v>
@@ -3183,23 +3184,23 @@
         <f t="shared" si="3"/>
         <v>3603495409</v>
       </c>
-      <c r="H90" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H90" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I90" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J90" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J90" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
-      <c r="D91" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D91" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E91" s="5">
         <v>89.0</v>
@@ -3212,23 +3213,23 @@
         <f t="shared" si="3"/>
         <v>4401319253</v>
       </c>
-      <c r="H91" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H91" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I91" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J91" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J91" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
-      <c r="D92" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D92" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E92" s="5">
         <v>90.0</v>
@@ -3241,23 +3242,23 @@
         <f t="shared" si="3"/>
         <v>5375783498</v>
       </c>
-      <c r="H92" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H92" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I92" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J92" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J92" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
-      <c r="D93" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D93" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E93" s="5">
         <v>91.0</v>
@@ -3270,23 +3271,23 @@
         <f t="shared" si="3"/>
         <v>6565996814</v>
       </c>
-      <c r="H93" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H93" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I93" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J93" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J93" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
-      <c r="D94" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D94" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E94" s="5">
         <v>92.0</v>
@@ -3299,23 +3300,23 @@
         <f t="shared" si="3"/>
         <v>8019726641</v>
       </c>
-      <c r="H94" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H94" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I94" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J94" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J94" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
-      <c r="D95" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D95" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E95" s="5">
         <v>93.0</v>
@@ -3328,23 +3329,23 @@
         <f t="shared" si="3"/>
         <v>9795316261</v>
       </c>
-      <c r="H95" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H95" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I95" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J95" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J95" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
-      <c r="D96" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D96" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E96" s="5">
         <v>94.0</v>
@@ -3357,23 +3358,23 @@
         <f t="shared" si="3"/>
         <v>11964026320</v>
       </c>
-      <c r="H96" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H96" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I96" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J96" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J96" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
-      <c r="D97" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D97" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E97" s="5">
         <v>95.0</v>
@@ -3386,23 +3387,23 @@
         <f t="shared" si="3"/>
         <v>14612894768</v>
       </c>
-      <c r="H97" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H97" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I97" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J97" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J97" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
-      <c r="D98" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D98" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E98" s="5">
         <v>96.0</v>
@@ -3415,23 +3416,23 @@
         <f t="shared" si="3"/>
         <v>17848229996</v>
       </c>
-      <c r="H98" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H98" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I98" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J98" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J98" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
-      <c r="D99" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D99" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E99" s="5">
         <v>97.0</v>
@@ -3444,23 +3445,23 @@
         <f t="shared" si="3"/>
         <v>21799877368</v>
       </c>
-      <c r="H99" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H99" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I99" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J99" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J99" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
-      <c r="D100" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D100" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E100" s="5">
         <v>98.0</v>
@@ -3473,23 +3474,23 @@
         <f t="shared" si="3"/>
         <v>26626430367</v>
       </c>
-      <c r="H100" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H100" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I100" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J100" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J100" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
-      <c r="D101" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D101" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E101" s="5">
         <v>99.0</v>
@@ -3502,23 +3503,23 @@
         <f t="shared" si="3"/>
         <v>32521595512</v>
       </c>
-      <c r="H101" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H101" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I101" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J101" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J101" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
-      <c r="D102" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D102" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E102" s="5">
         <v>100.0</v>
@@ -3531,23 +3532,23 @@
         <f t="shared" si="3"/>
         <v>39721966481</v>
       </c>
-      <c r="H102" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H102" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I102" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J102" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J102" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
-      <c r="D103" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D103" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E103" s="5">
         <v>101.0</v>
@@ -3560,23 +3561,23 @@
         <f t="shared" si="3"/>
         <v>48516519441</v>
       </c>
-      <c r="H103" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H103" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I103" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J103" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J103" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
-      <c r="D104" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D104" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E104" s="5">
         <v>102.0</v>
@@ -3589,23 +3590,23 @@
         <f t="shared" si="3"/>
         <v>59258210684</v>
       </c>
-      <c r="H104" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H104" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I104" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J104" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J104" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
-      <c r="D105" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D105" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E105" s="5">
         <v>103.0</v>
@@ -3618,23 +3619,23 @@
         <f t="shared" si="3"/>
         <v>72378141995</v>
       </c>
-      <c r="H105" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H105" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I105" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J105" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J105" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
-      <c r="D106" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D106" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E106" s="5">
         <v>104.0</v>
@@ -3647,23 +3648,23 @@
         <f t="shared" si="3"/>
         <v>88402862285</v>
       </c>
-      <c r="H106" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H106" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I106" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J106" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J106" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
-      <c r="D107" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D107" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E107" s="5">
         <v>105.0</v>
@@ -3676,23 +3677,23 @@
         <f t="shared" si="3"/>
         <v>107975499846</v>
       </c>
-      <c r="H107" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H107" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I107" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J107" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J107" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
-      <c r="D108" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D108" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E108" s="5">
         <v>106.0</v>
@@ -3705,23 +3706,23 @@
         <f t="shared" si="3"/>
         <v>131881573348</v>
       </c>
-      <c r="H108" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H108" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I108" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J108" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J108" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
-      <c r="D109" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D109" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E109" s="5">
         <v>107.0</v>
@@ -3734,23 +3735,23 @@
         <f t="shared" si="3"/>
         <v>161080517460</v>
       </c>
-      <c r="H109" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H109" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I109" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J109" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J109" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
-      <c r="D110" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D110" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E110" s="5">
         <v>108.0</v>
@@ -3763,23 +3764,23 @@
         <f t="shared" si="3"/>
         <v>196744188334</v>
       </c>
-      <c r="H110" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H110" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I110" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J110" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J110" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
-      <c r="D111" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D111" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E111" s="5">
         <v>109.0</v>
@@ -3792,23 +3793,23 @@
         <f t="shared" si="3"/>
         <v>240303894305</v>
       </c>
-      <c r="H111" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H111" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I111" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J111" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J111" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
-      <c r="D112" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D112" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E112" s="5">
         <v>110.0</v>
@@ -3821,23 +3822,23 @@
         <f t="shared" si="3"/>
         <v>293507839323</v>
       </c>
-      <c r="H112" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H112" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I112" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J112" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J112" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
-      <c r="D113" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D113" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E113" s="5">
         <v>111.0</v>
@@ -3850,23 +3851,23 @@
         <f t="shared" si="3"/>
         <v>358491284513</v>
       </c>
-      <c r="H113" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H113" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I113" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J113" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J113" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
-      <c r="D114" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D114" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E114" s="5">
         <v>112.0</v>
@@ -3879,23 +3880,23 @@
         <f t="shared" si="3"/>
         <v>437862243703</v>
       </c>
-      <c r="H114" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H114" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I114" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J114" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J114" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
-      <c r="D115" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D115" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E115" s="5">
         <v>113.0</v>
@@ -3908,23 +3909,23 @@
         <f t="shared" si="3"/>
         <v>534806152175</v>
       </c>
-      <c r="H115" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H115" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I115" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J115" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J115" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
-      <c r="D116" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D116" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E116" s="5">
         <v>114.0</v>
@@ -3937,23 +3938,23 @@
         <f t="shared" si="3"/>
         <v>653213709370</v>
       </c>
-      <c r="H116" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H116" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I116" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J116" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J116" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
-      <c r="D117" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D117" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E117" s="5">
         <v>115.0</v>
@@ -3966,23 +3967,23 @@
         <f t="shared" si="3"/>
         <v>797837026314</v>
       </c>
-      <c r="H117" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H117" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I117" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J117" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J117" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
-      <c r="D118" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D118" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E118" s="5">
         <v>116.0</v>
@@ -3995,23 +3996,23 @@
         <f t="shared" si="3"/>
         <v>974480344525</v>
       </c>
-      <c r="H118" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H118" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I118" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J118" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J118" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
-      <c r="D119" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D119" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E119" s="5">
         <v>117.0</v>
@@ -4024,23 +4025,23 @@
         <f t="shared" si="3"/>
         <v>1190232980598</v>
       </c>
-      <c r="H119" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H119" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I119" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J119" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J119" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
-      <c r="D120" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D120" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E120" s="5">
         <v>118.0</v>
@@ -4053,23 +4054,23 @@
         <f t="shared" si="3"/>
         <v>1453753845377</v>
       </c>
-      <c r="H120" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H120" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I120" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J120" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J120" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
-      <c r="D121" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D121" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E121" s="5">
         <v>119.0</v>
@@ -4082,23 +4083,23 @@
         <f t="shared" si="3"/>
         <v>1775618956452</v>
       </c>
-      <c r="H121" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H121" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I121" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J121" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J121" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
-      <c r="D122" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D122" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E122" s="5">
         <v>120.0</v>
@@ -4111,23 +4112,23 @@
         <f t="shared" si="3"/>
         <v>2168745890874</v>
       </c>
-      <c r="H122" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H122" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I122" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J122" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J122" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
-      <c r="D123" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D123" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E123" s="5">
         <v>121.0</v>
@@ -4140,23 +4141,23 @@
         <f t="shared" si="3"/>
         <v>2648912212884</v>
       </c>
-      <c r="H123" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H123" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I123" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J123" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J123" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
-      <c r="D124" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D124" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E124" s="5">
         <v>122.0</v>
@@ -4169,23 +4170,23 @@
         <f t="shared" si="3"/>
         <v>3235388682963</v>
       </c>
-      <c r="H124" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H124" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I124" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J124" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J124" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
-      <c r="D125" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D125" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E125" s="5">
         <v>123.0</v>
@@ -4198,23 +4199,23 @@
         <f t="shared" si="3"/>
         <v>3951712661114</v>
       </c>
-      <c r="H125" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H125" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I125" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J125" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J125" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
-      <c r="D126" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D126" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E126" s="5">
         <v>124.0</v>
@@ -4227,23 +4228,23 @@
         <f t="shared" si="3"/>
         <v>4826632743763</v>
       </c>
-      <c r="H126" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H126" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I126" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J126" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J126" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
-      <c r="D127" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D127" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E127" s="5">
         <v>125.0</v>
@@ -4256,23 +4257,23 @@
         <f t="shared" si="3"/>
         <v>5895262545880</v>
       </c>
-      <c r="H127" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H127" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I127" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J127" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J127" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
-      <c r="D128" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D128" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E128" s="5">
         <v>126.0</v>
@@ -4285,23 +4286,23 @@
         <f t="shared" si="3"/>
         <v>7200489933639</v>
       </c>
-      <c r="H128" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H128" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I128" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J128" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J128" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
-      <c r="D129" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D129" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E129" s="5">
         <v>127.0</v>
@@ -4314,23 +4315,23 @@
         <f t="shared" si="3"/>
         <v>8794698265073</v>
       </c>
-      <c r="H129" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H129" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I129" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J129" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J129" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
-      <c r="D130" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D130" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E130" s="5">
         <v>128.0</v>
@@ -4343,23 +4344,23 @@
         <f t="shared" si="3"/>
         <v>10741868718169</v>
       </c>
-      <c r="H130" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H130" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I130" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J130" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J130" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
-      <c r="D131" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D131" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E131" s="5">
         <v>129.0</v>
@@ -4372,23 +4373,23 @@
         <f t="shared" si="3"/>
         <v>13120148080188</v>
       </c>
-      <c r="H131" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H131" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I131" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J131" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J131" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
-      <c r="D132" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D132" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E132" s="5">
         <v>130.0</v>
@@ -4401,23 +4402,23 @@
         <f t="shared" si="3"/>
         <v>16024985052634</v>
       </c>
-      <c r="H132" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H132" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I132" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J132" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J132" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
-      <c r="D133" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D133" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E133" s="5">
         <v>131.0</v>
@@ -4430,23 +4431,23 @@
         <f t="shared" si="3"/>
         <v>19572960942784</v>
       </c>
-      <c r="H133" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H133" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I133" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J133" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J133" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
-      <c r="D134" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D134" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E134" s="5">
         <v>132.0</v>
@@ -4459,23 +4460,23 @@
         <f t="shared" si="3"/>
         <v>23906468480900</v>
       </c>
-      <c r="H134" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H134" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I134" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J134" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J134" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
-      <c r="D135" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D135" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E135" s="5">
         <v>133.0</v>
@@ -4488,23 +4489,23 @@
         <f t="shared" si="3"/>
         <v>29199426540463</v>
       </c>
-      <c r="H135" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H135" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I135" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J135" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J135" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
-      <c r="D136" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D136" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E136" s="5">
         <v>134.0</v>
@@ -4517,23 +4518,23 @@
         <f t="shared" si="3"/>
         <v>35664260113239</v>
       </c>
-      <c r="H136" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H136" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I136" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J136" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J136" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
-      <c r="D137" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D137" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E137" s="5">
         <v>135.0</v>
@@ -4546,23 +4547,23 @@
         <f t="shared" si="3"/>
         <v>43560425670073</v>
       </c>
-      <c r="H137" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H137" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I137" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J137" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J137" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
-      <c r="D138" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D138" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E138" s="5">
         <v>136.0</v>
@@ -4575,23 +4576,23 @@
         <f t="shared" si="3"/>
         <v>53204824060081</v>
       </c>
-      <c r="H138" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H138" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I138" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J138" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J138" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
-      <c r="D139" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D139" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E139" s="5">
         <v>137.0</v>
@@ -4604,23 +4605,23 @@
         <f t="shared" si="3"/>
         <v>64984518854432</v>
       </c>
-      <c r="H139" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H139" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I139" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J139" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J139" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
-      <c r="D140" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D140" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E140" s="5">
         <v>138.0</v>
@@ -4633,23 +4634,23 @@
         <f t="shared" si="3"/>
         <v>79372270566536</v>
       </c>
-      <c r="H140" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H140" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I140" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J140" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J140" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
-      <c r="D141" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D141" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E141" s="5">
         <v>139.0</v>
@@ -4662,23 +4663,23 @@
         <f t="shared" si="3"/>
         <v>96945510191425</v>
       </c>
-      <c r="H141" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H141" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I141" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J141" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J141" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
-      <c r="D142" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D142" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E142" s="5">
         <v>140.0</v>
@@ -4691,23 +4692,23 @@
         <f t="shared" si="3"/>
         <v>118409513539073</v>
       </c>
-      <c r="H142" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H142" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I142" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J142" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J142" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
-      <c r="D143" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D143" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E143" s="5">
         <v>141.0</v>
@@ -4720,23 +4721,23 @@
         <f t="shared" si="3"/>
         <v>144625706429050</v>
       </c>
-      <c r="H143" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H143" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I143" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J143" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J143" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
-      <c r="D144" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D144" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E144" s="5">
         <v>142.0</v>
@@ -4749,23 +4750,23 @@
         <f t="shared" si="3"/>
         <v>176646236733327</v>
       </c>
-      <c r="H144" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H144" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I144" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J144" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J144" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
-      <c r="D145" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D145" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E145" s="5">
         <v>143.0</v>
@@ -4778,23 +4779,23 @@
         <f t="shared" si="3"/>
         <v>215756200764722</v>
       </c>
-      <c r="H145" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H145" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I145" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J145" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J145" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
-      <c r="D146" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D146" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E146" s="5">
         <v>144.0</v>
@@ -4807,23 +4808,23 @@
         <f t="shared" si="3"/>
         <v>263525218704214</v>
       </c>
-      <c r="H146" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H146" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I146" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J146" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J146" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
-      <c r="D147" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D147" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E147" s="5">
         <v>145.0</v>
@@ -4836,23 +4837,23 @@
         <f t="shared" si="3"/>
         <v>321870428970111</v>
       </c>
-      <c r="H147" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H147" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I147" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J147" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J147" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
-      <c r="D148" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D148" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E148" s="5">
         <v>146.0</v>
@@ -4865,23 +4866,23 @@
         <f t="shared" si="3"/>
         <v>393133429714312</v>
       </c>
-      <c r="H148" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H148" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I148" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J148" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J148" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
-      <c r="D149" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D149" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E149" s="5">
         <v>147.0</v>
@@ -4894,23 +4895,23 @@
         <f t="shared" si="3"/>
         <v>480174255378050</v>
       </c>
-      <c r="H149" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H149" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I149" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J149" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J149" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
-      <c r="D150" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D150" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E150" s="5">
         <v>148.0</v>
@@ -4923,23 +4924,23 @@
         <f t="shared" si="3"/>
         <v>586486159916279</v>
       </c>
-      <c r="H150" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H150" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I150" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J150" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J150" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
-      <c r="D151" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D151" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E151" s="5">
         <v>149.0</v>
@@ -4952,23 +4953,23 @@
         <f t="shared" si="3"/>
         <v>716335813344532</v>
       </c>
-      <c r="H151" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H151" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I151" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J151" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J151" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
-      <c r="D152" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D152" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E152" s="5">
         <v>150.0</v>
@@ -4981,23 +4982,23 @@
         <f t="shared" si="3"/>
         <v>874934538187942</v>
       </c>
-      <c r="H152" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H152" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I152" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J152" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J152" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
-      <c r="D153" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D153" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E153" s="5">
         <v>151.0</v>
@@ -5010,23 +5011,23 @@
         <f t="shared" si="3"/>
         <v>1.06865E+15</v>
       </c>
-      <c r="H153" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H153" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I153" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J153" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J153" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
-      <c r="D154" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D154" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E154" s="5">
         <v>152.0</v>
@@ -5039,23 +5040,23 @@
         <f t="shared" si="3"/>
         <v>1.30525E+15</v>
       </c>
-      <c r="H154" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H154" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I154" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J154" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J154" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
-      <c r="D155" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D155" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E155" s="5">
         <v>153.0</v>
@@ -5068,23 +5069,23 @@
         <f t="shared" si="3"/>
         <v>1.59423E+15</v>
       </c>
-      <c r="H155" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H155" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I155" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J155" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J155" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
-      <c r="D156" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D156" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E156" s="5">
         <v>154.0</v>
@@ -5097,23 +5098,23 @@
         <f t="shared" si="3"/>
         <v>1.9472E+15</v>
       </c>
-      <c r="H156" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H156" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I156" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J156" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J156" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
-      <c r="D157" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D157" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E157" s="5">
         <v>155.0</v>
@@ -5126,23 +5127,23 @@
         <f t="shared" si="3"/>
         <v>2.37832E+15</v>
       </c>
-      <c r="H157" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H157" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I157" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J157" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J157" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
-      <c r="D158" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D158" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E158" s="5">
         <v>156.0</v>
@@ -5155,23 +5156,23 @@
         <f t="shared" si="3"/>
         <v>2.90488E+15</v>
       </c>
-      <c r="H158" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H158" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I158" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J158" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J158" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
-      <c r="D159" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D159" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E159" s="5">
         <v>157.0</v>
@@ -5184,23 +5185,23 @@
         <f t="shared" si="3"/>
         <v>3.54803E+15</v>
       </c>
-      <c r="H159" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H159" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I159" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J159" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J159" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
-      <c r="D160" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D160" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E160" s="5">
         <v>158.0</v>
@@ -5213,23 +5214,23 @@
         <f t="shared" si="3"/>
         <v>4.33358E+15</v>
       </c>
-      <c r="H160" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H160" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I160" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J160" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J160" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
-      <c r="D161" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D161" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E161" s="5">
         <v>159.0</v>
@@ -5242,23 +5243,23 @@
         <f t="shared" si="3"/>
         <v>5.29305E+15</v>
       </c>
-      <c r="H161" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H161" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I161" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J161" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J161" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
-      <c r="D162" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D162" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E162" s="5">
         <v>160.0</v>
@@ -5271,23 +5272,23 @@
         <f t="shared" si="3"/>
         <v>6.46494E+15</v>
       </c>
-      <c r="H162" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H162" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I162" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J162" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J162" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
-      <c r="D163" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D163" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E163" s="5">
         <v>161.0</v>
@@ -5300,23 +5301,23 @@
         <f t="shared" si="3"/>
         <v>7.8963E+15</v>
       </c>
-      <c r="H163" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H163" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I163" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J163" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J163" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
-      <c r="D164" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D164" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E164" s="5">
         <v>162.0</v>
@@ -5329,23 +5330,23 @@
         <f t="shared" si="3"/>
         <v>9.64456E+15</v>
       </c>
-      <c r="H164" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H164" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I164" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J164" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J164" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
-      <c r="D165" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D165" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E165" s="5">
         <v>163.0</v>
@@ -5358,23 +5359,23 @@
         <f t="shared" si="3"/>
         <v>1.17799E+16</v>
       </c>
-      <c r="H165" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H165" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I165" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J165" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J165" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
-      <c r="D166" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D166" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E166" s="5">
         <v>164.0</v>
@@ -5387,23 +5388,23 @@
         <f t="shared" si="3"/>
         <v>1.4388E+16</v>
       </c>
-      <c r="H166" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H166" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I166" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J166" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J166" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
-      <c r="D167" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D167" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E167" s="5">
         <v>165.0</v>
@@ -5416,23 +5417,23 @@
         <f t="shared" si="3"/>
         <v>1.75735E+16</v>
       </c>
-      <c r="H167" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H167" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I167" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J167" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J167" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
-      <c r="D168" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D168" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E168" s="5">
         <v>166.0</v>
@@ -5445,23 +5446,23 @@
         <f t="shared" si="3"/>
         <v>2.14644E+16</v>
       </c>
-      <c r="H168" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H168" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I168" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J168" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J168" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
-      <c r="D169" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D169" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E169" s="5">
         <v>167.0</v>
@@ -5474,23 +5475,23 @@
         <f t="shared" si="3"/>
         <v>2.62166E+16</v>
       </c>
-      <c r="H169" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H169" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I169" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J169" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J169" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
-      <c r="D170" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D170" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E170" s="5">
         <v>168.0</v>
@@ -5503,23 +5504,23 @@
         <f t="shared" si="3"/>
         <v>3.20211E+16</v>
       </c>
-      <c r="H170" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H170" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I170" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J170" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J170" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
-      <c r="D171" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D171" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E171" s="5">
         <v>169.0</v>
@@ -5532,23 +5533,23 @@
         <f t="shared" si="3"/>
         <v>3.91106E+16</v>
       </c>
-      <c r="H171" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H171" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I171" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J171" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J171" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
-      <c r="D172" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="D172" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E172" s="5">
         <v>170.0</v>
@@ -5561,17 +5562,17 @@
         <f t="shared" si="3"/>
         <v>4.77698E+16</v>
       </c>
-      <c r="H172" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
+      <c r="H172" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I172" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J172" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="J172" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
